--- a/grupo8/Casos de Testes - Grupo 8.xlsx
+++ b/grupo8/Casos de Testes - Grupo 8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Teste" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">Entrada (Salário bruto; Qtde de dependentes)</t>
   </si>
@@ -32,6 +32,30 @@
   </si>
   <si>
     <t xml:space="preserve">Resultado do teste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario  - R$ 3200,00 
+Numero de dependentes - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario liquido R$2.805,64
+INSS  R$352,00
+IR R$42,36
+FGTS R$ 256,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario  - R$ 3200,00 
+Numero de dependentes – 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario liquido R$2.775,60
+INSS R$352,00
+IR R$72,40
+FGTS R$ 256,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salario  - R$ 1200,00 
+Numero de dependentes - 2</t>
   </si>
 </sst>
 </file>
@@ -114,13 +138,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -140,19 +168,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -167,6 +195,30 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
